--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2777,28 +2777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2439.164585859382</v>
+        <v>2536.644049914236</v>
       </c>
       <c r="AB2" t="n">
-        <v>3337.37259471991</v>
+        <v>3470.74829793021</v>
       </c>
       <c r="AC2" t="n">
-        <v>3018.858438311571</v>
+        <v>3139.504951601449</v>
       </c>
       <c r="AD2" t="n">
-        <v>2439164.585859383</v>
+        <v>2536644.049914236</v>
       </c>
       <c r="AE2" t="n">
-        <v>3337372.59471991</v>
+        <v>3470748.29793021</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.034904128723263e-06</v>
+        <v>1.91484359097187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.684375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3018858.438311571</v>
+        <v>3139504.951601449</v>
       </c>
     </row>
     <row r="3">
@@ -2883,28 +2883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>818.7222032707473</v>
+        <v>867.5046057254601</v>
       </c>
       <c r="AB3" t="n">
-        <v>1120.211837989461</v>
+        <v>1186.958073155706</v>
       </c>
       <c r="AC3" t="n">
-        <v>1013.300392398935</v>
+        <v>1073.676460559843</v>
       </c>
       <c r="AD3" t="n">
-        <v>818722.2032707473</v>
+        <v>867504.6057254601</v>
       </c>
       <c r="AE3" t="n">
-        <v>1120211.837989461</v>
+        <v>1186958.073155706</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.941867614524296e-06</v>
+        <v>3.592963495831203e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.826041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1013300.392398935</v>
+        <v>1073676.460559843</v>
       </c>
     </row>
     <row r="4">
@@ -2989,28 +2989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>627.5907107747026</v>
+        <v>676.2877723748438</v>
       </c>
       <c r="AB4" t="n">
-        <v>858.6972978300333</v>
+        <v>925.3267658740803</v>
       </c>
       <c r="AC4" t="n">
-        <v>776.7444329143611</v>
+        <v>837.0148780433298</v>
       </c>
       <c r="AD4" t="n">
-        <v>627590.7107747026</v>
+        <v>676287.7723748438</v>
       </c>
       <c r="AE4" t="n">
-        <v>858697.2978300333</v>
+        <v>925326.7658740802</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.265293390303754e-06</v>
+        <v>4.191385858558104e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.708333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>776744.4329143611</v>
+        <v>837014.8780433298</v>
       </c>
     </row>
     <row r="5">
@@ -3095,28 +3095,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>547.6027486475075</v>
+        <v>584.1042991425213</v>
       </c>
       <c r="AB5" t="n">
-        <v>749.2542392277676</v>
+        <v>799.1972709498017</v>
       </c>
       <c r="AC5" t="n">
-        <v>677.746466220798</v>
+        <v>722.9230050907664</v>
       </c>
       <c r="AD5" t="n">
-        <v>547602.7486475075</v>
+        <v>584104.2991425213</v>
       </c>
       <c r="AE5" t="n">
-        <v>749254.2392277676</v>
+        <v>799197.2709498017</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.445168889417904e-06</v>
+        <v>4.524202625920426e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.214583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>677746.466220798</v>
+        <v>722923.0050907665</v>
       </c>
     </row>
     <row r="6">
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>488.3173968235982</v>
+        <v>536.9291175691676</v>
       </c>
       <c r="AB6" t="n">
-        <v>668.137405377164</v>
+        <v>734.6501062990134</v>
       </c>
       <c r="AC6" t="n">
-        <v>604.3713091447048</v>
+        <v>664.5361312417347</v>
       </c>
       <c r="AD6" t="n">
-        <v>488317.3968235982</v>
+        <v>536929.1175691676</v>
       </c>
       <c r="AE6" t="n">
-        <v>668137.405377164</v>
+        <v>734650.1062990134</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.552102174779358e-06</v>
+        <v>4.722057200516194e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.954166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>604371.3091447048</v>
+        <v>664536.1312417347</v>
       </c>
     </row>
     <row r="7">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>451.3372689414944</v>
+        <v>487.9240707825289</v>
       </c>
       <c r="AB7" t="n">
-        <v>617.5395629607693</v>
+        <v>667.5992393354528</v>
       </c>
       <c r="AC7" t="n">
-        <v>558.6024537940131</v>
+        <v>603.8845049146938</v>
       </c>
       <c r="AD7" t="n">
-        <v>451337.2689414944</v>
+        <v>487924.0707825289</v>
       </c>
       <c r="AE7" t="n">
-        <v>617539.5629607693</v>
+        <v>667599.2393354528</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.627524423799647e-06</v>
+        <v>4.861608107836811e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.783333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>558602.453794013</v>
+        <v>603884.5049146938</v>
       </c>
     </row>
     <row r="8">
@@ -3413,28 +3413,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>439.5482195386138</v>
+        <v>476.1350213796483</v>
       </c>
       <c r="AB8" t="n">
-        <v>601.4092654715949</v>
+        <v>651.4689418462785</v>
       </c>
       <c r="AC8" t="n">
-        <v>544.0116092581907</v>
+        <v>589.2936603788714</v>
       </c>
       <c r="AD8" t="n">
-        <v>439548.2195386138</v>
+        <v>476135.0213796483</v>
       </c>
       <c r="AE8" t="n">
-        <v>601409.265471595</v>
+        <v>651468.9418462785</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.650136510062983e-06</v>
+        <v>4.903446387594444e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>544011.6092581907</v>
+        <v>589293.6603788715</v>
       </c>
     </row>
     <row r="9">
@@ -3519,28 +3519,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>439.8549034614926</v>
+        <v>476.4417053025272</v>
       </c>
       <c r="AB9" t="n">
-        <v>601.8288839448176</v>
+        <v>651.8885603195012</v>
       </c>
       <c r="AC9" t="n">
-        <v>544.3911799332672</v>
+        <v>589.6732310539479</v>
       </c>
       <c r="AD9" t="n">
-        <v>439854.9034614926</v>
+        <v>476441.7053025272</v>
       </c>
       <c r="AE9" t="n">
-        <v>601828.8839448176</v>
+        <v>651888.5603195012</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.655388349453177e-06</v>
+        <v>4.913163665473635e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.722916666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>544391.1799332672</v>
+        <v>589673.2310539479</v>
       </c>
     </row>
   </sheetData>
@@ -3816,28 +3816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1467.924509475664</v>
+        <v>1538.506782271967</v>
       </c>
       <c r="AB2" t="n">
-        <v>2008.479074123411</v>
+        <v>2105.052853633424</v>
       </c>
       <c r="AC2" t="n">
-        <v>1816.792650207158</v>
+        <v>1904.149563742885</v>
       </c>
       <c r="AD2" t="n">
-        <v>1467924.509475664</v>
+        <v>1538506.782271967</v>
       </c>
       <c r="AE2" t="n">
-        <v>2008479.074123411</v>
+        <v>2105052.853633424</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.364426124264726e-06</v>
+        <v>2.600806768005073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.521875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1816792.650207157</v>
+        <v>1904149.563742885</v>
       </c>
     </row>
     <row r="3">
@@ -3922,28 +3922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>643.4917565696318</v>
+        <v>678.7829824763344</v>
       </c>
       <c r="AB3" t="n">
-        <v>880.4538101912862</v>
+        <v>928.7408224158406</v>
       </c>
       <c r="AC3" t="n">
-        <v>796.4245342713127</v>
+        <v>840.1031018204031</v>
       </c>
       <c r="AD3" t="n">
-        <v>643491.7565696317</v>
+        <v>678782.9824763344</v>
       </c>
       <c r="AE3" t="n">
-        <v>880453.8101912861</v>
+        <v>928740.8224158406</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.198082789505113e-06</v>
+        <v>4.189885032186029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.152083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>796424.5342713128</v>
+        <v>840103.1018204031</v>
       </c>
     </row>
     <row r="4">
@@ -4028,28 +4028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>504.1186371429254</v>
+        <v>539.3245221950566</v>
       </c>
       <c r="AB4" t="n">
-        <v>689.7573594835912</v>
+        <v>737.9276045859482</v>
       </c>
       <c r="AC4" t="n">
-        <v>623.9278851750109</v>
+        <v>667.5008296921624</v>
       </c>
       <c r="AD4" t="n">
-        <v>504118.6371429253</v>
+        <v>539324.5221950565</v>
       </c>
       <c r="AE4" t="n">
-        <v>689757.3594835913</v>
+        <v>737927.6045859482</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.499762672527477e-06</v>
+        <v>4.764933448206618e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.288541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>623927.8851750109</v>
+        <v>667500.8296921623</v>
       </c>
     </row>
     <row r="5">
@@ -4134,28 +4134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>419.1124353942927</v>
+        <v>454.4035717924444</v>
       </c>
       <c r="AB5" t="n">
-        <v>573.4481240421677</v>
+        <v>621.7350137971737</v>
       </c>
       <c r="AC5" t="n">
-        <v>518.7190399230794</v>
+        <v>562.3974966909432</v>
       </c>
       <c r="AD5" t="n">
-        <v>419112.4353942928</v>
+        <v>454403.5717924444</v>
       </c>
       <c r="AE5" t="n">
-        <v>573448.1240421677</v>
+        <v>621735.0137971736</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.693990791311759e-06</v>
+        <v>5.135162218300913e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.835416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>518719.0399230794</v>
+        <v>562397.4966909431</v>
       </c>
     </row>
     <row r="6">
@@ -4240,28 +4240,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>403.9075596086915</v>
+        <v>439.1986960068432</v>
       </c>
       <c r="AB6" t="n">
-        <v>552.6441422005306</v>
+        <v>600.9310319555367</v>
       </c>
       <c r="AC6" t="n">
-        <v>499.9005609098363</v>
+        <v>543.5790176776999</v>
       </c>
       <c r="AD6" t="n">
-        <v>403907.5596086915</v>
+        <v>439198.6960068432</v>
       </c>
       <c r="AE6" t="n">
-        <v>552644.1422005306</v>
+        <v>600931.0319555367</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.719948239976015e-06</v>
+        <v>5.184641121530299e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.779166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>499900.5609098363</v>
+        <v>543579.0176776999</v>
       </c>
     </row>
     <row r="7">
@@ -4346,28 +4346,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>405.7522115624087</v>
+        <v>441.0433479605604</v>
       </c>
       <c r="AB7" t="n">
-        <v>555.1680763839071</v>
+        <v>603.4549661389132</v>
       </c>
       <c r="AC7" t="n">
-        <v>502.1836143571152</v>
+        <v>545.8620711249789</v>
       </c>
       <c r="AD7" t="n">
-        <v>405752.2115624087</v>
+        <v>441043.3479605603</v>
       </c>
       <c r="AE7" t="n">
-        <v>555168.0763839071</v>
+        <v>603454.9661389132</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.719797324576804e-06</v>
+        <v>5.184353453488267e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.780208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>502183.6143571152</v>
+        <v>545862.0711249789</v>
       </c>
     </row>
   </sheetData>
@@ -4643,28 +4643,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>462.0527123315669</v>
+        <v>493.4431293136906</v>
       </c>
       <c r="AB2" t="n">
-        <v>632.2009053390651</v>
+        <v>675.1506587014663</v>
       </c>
       <c r="AC2" t="n">
-        <v>571.8645382330474</v>
+        <v>610.7152274148985</v>
       </c>
       <c r="AD2" t="n">
-        <v>462052.7123315668</v>
+        <v>493443.1293136906</v>
       </c>
       <c r="AE2" t="n">
-        <v>632200.9053390651</v>
+        <v>675150.6587014664</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.424449048656366e-06</v>
+        <v>5.163441988208041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.235416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>571864.5382330474</v>
+        <v>610715.2274148986</v>
       </c>
     </row>
     <row r="3">
@@ -4749,28 +4749,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>342.6728444851762</v>
+        <v>373.9779206127283</v>
       </c>
       <c r="AB3" t="n">
-        <v>468.860103483567</v>
+        <v>511.6930897237705</v>
       </c>
       <c r="AC3" t="n">
-        <v>424.1127532563827</v>
+        <v>462.8578194062951</v>
       </c>
       <c r="AD3" t="n">
-        <v>342672.8444851762</v>
+        <v>373977.9206127283</v>
       </c>
       <c r="AE3" t="n">
-        <v>468860.103483567</v>
+        <v>511693.0897237705</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.805705744228917e-06</v>
+        <v>5.975418973781633e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.252083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>424112.7532563828</v>
+        <v>462857.8194062951</v>
       </c>
     </row>
   </sheetData>
@@ -5046,28 +5046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>706.2537905331099</v>
+        <v>750.0557233718906</v>
       </c>
       <c r="AB2" t="n">
-        <v>966.3275939256382</v>
+        <v>1026.259330840553</v>
       </c>
       <c r="AC2" t="n">
-        <v>874.1026446106708</v>
+        <v>928.3145806691468</v>
       </c>
       <c r="AD2" t="n">
-        <v>706253.7905331098</v>
+        <v>750055.7233718906</v>
       </c>
       <c r="AE2" t="n">
-        <v>966327.5939256382</v>
+        <v>1026259.330840553</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.992033081389009e-06</v>
+        <v>4.044515864128183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.423958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>874102.6446106709</v>
+        <v>928314.5806691468</v>
       </c>
     </row>
     <row r="3">
@@ -5152,28 +5152,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.3465641952847</v>
+        <v>433.1767009878652</v>
       </c>
       <c r="AB3" t="n">
-        <v>547.7718311758773</v>
+        <v>592.6914726989008</v>
       </c>
       <c r="AC3" t="n">
-        <v>495.4932564110445</v>
+        <v>536.1258303922234</v>
       </c>
       <c r="AD3" t="n">
-        <v>400346.5641952847</v>
+        <v>433176.7009878652</v>
       </c>
       <c r="AE3" t="n">
-        <v>547771.8311758774</v>
+        <v>592691.4726989008</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.689284935513686e-06</v>
+        <v>5.460178190043814e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.239583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>495493.2564110445</v>
+        <v>536125.8303922234</v>
       </c>
     </row>
     <row r="4">
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>354.8084107957118</v>
+        <v>398.52491327137</v>
       </c>
       <c r="AB4" t="n">
-        <v>485.4645206930419</v>
+        <v>545.2793680162104</v>
       </c>
       <c r="AC4" t="n">
-        <v>439.1324681918314</v>
+        <v>493.2386704371421</v>
       </c>
       <c r="AD4" t="n">
-        <v>354808.4107957118</v>
+        <v>398524.91327137</v>
       </c>
       <c r="AE4" t="n">
-        <v>485464.520693042</v>
+        <v>545279.3680162104</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.802540031042717e-06</v>
+        <v>5.690125189840184e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.9875</v>
       </c>
       <c r="AH4" t="n">
-        <v>439132.4681918314</v>
+        <v>493238.6704371421</v>
       </c>
     </row>
   </sheetData>
@@ -5555,28 +5555,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.3069051474732</v>
+        <v>369.4075174808755</v>
       </c>
       <c r="AB2" t="n">
-        <v>450.5722356180945</v>
+        <v>505.4396625268138</v>
       </c>
       <c r="AC2" t="n">
-        <v>407.5702538328072</v>
+        <v>457.2012105242757</v>
       </c>
       <c r="AD2" t="n">
-        <v>329306.9051474732</v>
+        <v>369407.5174808755</v>
       </c>
       <c r="AE2" t="n">
-        <v>450572.2356180944</v>
+        <v>505439.6625268138</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.747284505984196e-06</v>
+        <v>6.117665984115041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.631249999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>407570.2538328072</v>
+        <v>457201.2105242757</v>
       </c>
     </row>
     <row r="3">
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>328.8066707577806</v>
+        <v>359.0314765033327</v>
       </c>
       <c r="AB3" t="n">
-        <v>449.8877928573334</v>
+        <v>491.2427055027188</v>
       </c>
       <c r="AC3" t="n">
-        <v>406.9511333285117</v>
+        <v>444.3591911530061</v>
       </c>
       <c r="AD3" t="n">
-        <v>328806.6707577806</v>
+        <v>359031.4765033327</v>
       </c>
       <c r="AE3" t="n">
-        <v>449887.7928573334</v>
+        <v>491242.7055027188</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.762325661288159e-06</v>
+        <v>6.151159699077727e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.595833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>406951.1333285117</v>
+        <v>444359.191153006</v>
       </c>
     </row>
   </sheetData>
@@ -5958,28 +5958,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1660.467664839247</v>
+        <v>1731.645795458778</v>
       </c>
       <c r="AB2" t="n">
-        <v>2271.925113696376</v>
+        <v>2369.31417216752</v>
       </c>
       <c r="AC2" t="n">
-        <v>2055.095769512117</v>
+        <v>2143.190152929177</v>
       </c>
       <c r="AD2" t="n">
-        <v>1660467.664839247</v>
+        <v>1731645.795458778</v>
       </c>
       <c r="AE2" t="n">
-        <v>2271925.113696376</v>
+        <v>2369314.17216752</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.278287072205607e-06</v>
+        <v>2.416938754196607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2055095.769512117</v>
+        <v>2143190.152929177</v>
       </c>
     </row>
     <row r="3">
@@ -6064,28 +6064,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>686.3623947235097</v>
+        <v>733.700723833285</v>
       </c>
       <c r="AB3" t="n">
-        <v>939.1113086324948</v>
+        <v>1003.881698940176</v>
       </c>
       <c r="AC3" t="n">
-        <v>849.4838433876085</v>
+        <v>908.0726385501385</v>
       </c>
       <c r="AD3" t="n">
-        <v>686362.3947235098</v>
+        <v>733700.723833285</v>
       </c>
       <c r="AE3" t="n">
-        <v>939111.3086324948</v>
+        <v>1003881.698940176</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.127935938146879e-06</v>
+        <v>4.023423961004952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.321875000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>849483.8433876085</v>
+        <v>908072.6385501386</v>
       </c>
     </row>
     <row r="4">
@@ -6170,28 +6170,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>533.861422249621</v>
+        <v>569.4078618863759</v>
       </c>
       <c r="AB4" t="n">
-        <v>730.4527502256437</v>
+        <v>779.0889571348908</v>
       </c>
       <c r="AC4" t="n">
-        <v>660.7393649409814</v>
+        <v>704.733800524155</v>
       </c>
       <c r="AD4" t="n">
-        <v>533861.422249621</v>
+        <v>569407.8618863759</v>
       </c>
       <c r="AE4" t="n">
-        <v>730452.7502256437</v>
+        <v>779088.9571348908</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.439468870334112e-06</v>
+        <v>4.612459110764111e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.386458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>660739.3649409814</v>
+        <v>704733.8005241549</v>
       </c>
     </row>
     <row r="5">
@@ -6276,28 +6276,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>453.0220085605877</v>
+        <v>500.3602481618119</v>
       </c>
       <c r="AB5" t="n">
-        <v>619.8446980330792</v>
+        <v>684.6149658712123</v>
       </c>
       <c r="AC5" t="n">
-        <v>560.6875900102989</v>
+        <v>619.2762743916023</v>
       </c>
       <c r="AD5" t="n">
-        <v>453022.0085605877</v>
+        <v>500360.2481618118</v>
       </c>
       <c r="AE5" t="n">
-        <v>619844.6980330793</v>
+        <v>684614.9658712123</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.61310772500016e-06</v>
+        <v>4.940769148627954e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.962499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>560687.5900102989</v>
+        <v>619276.2743916024</v>
       </c>
     </row>
     <row r="6">
@@ -6382,28 +6382,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>417.7071365660593</v>
+        <v>453.3388275488348</v>
       </c>
       <c r="AB6" t="n">
-        <v>571.52533218797</v>
+        <v>620.2781837498662</v>
       </c>
       <c r="AC6" t="n">
-        <v>516.979756624791</v>
+        <v>561.0797044586768</v>
       </c>
       <c r="AD6" t="n">
-        <v>417707.1365660593</v>
+        <v>453338.8275488348</v>
       </c>
       <c r="AE6" t="n">
-        <v>571525.3321879699</v>
+        <v>620278.1837498662</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.689383190874134e-06</v>
+        <v>5.084988028309745e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.792708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>516979.756624791</v>
+        <v>561079.7044586769</v>
       </c>
     </row>
     <row r="7">
@@ -6488,28 +6488,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>414.5750358893137</v>
+        <v>450.2067268720892</v>
       </c>
       <c r="AB7" t="n">
-        <v>567.2398538635169</v>
+        <v>615.9927054254133</v>
       </c>
       <c r="AC7" t="n">
-        <v>513.1032783369171</v>
+        <v>557.2032261708031</v>
       </c>
       <c r="AD7" t="n">
-        <v>414575.0358893137</v>
+        <v>450206.7268720892</v>
       </c>
       <c r="AE7" t="n">
-        <v>567239.8538635169</v>
+        <v>615992.7054254133</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.698655894568617e-06</v>
+        <v>5.102520519565179e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.772916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>513103.2783369172</v>
+        <v>557203.2261708031</v>
       </c>
     </row>
   </sheetData>
@@ -6785,28 +6785,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.4982044781967</v>
+        <v>359.6112195628202</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.5197827499438</v>
+        <v>492.0359355331682</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.6680701506689</v>
+        <v>445.0767164226546</v>
       </c>
       <c r="AD2" t="n">
-        <v>320498.2044781967</v>
+        <v>359611.2195628202</v>
       </c>
       <c r="AE2" t="n">
-        <v>438519.7827499438</v>
+        <v>492035.9355331683</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.698938432883688e-06</v>
+        <v>6.187496506625857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.908333333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>396668.070150669</v>
+        <v>445076.7164226546</v>
       </c>
     </row>
   </sheetData>
@@ -7082,28 +7082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1021.607763580811</v>
+        <v>1078.584216914096</v>
       </c>
       <c r="AB2" t="n">
-        <v>1397.808812284904</v>
+        <v>1475.766509359222</v>
       </c>
       <c r="AC2" t="n">
-        <v>1264.403901077422</v>
+        <v>1334.921424957282</v>
       </c>
       <c r="AD2" t="n">
-        <v>1021607.763580811</v>
+        <v>1078584.216914096</v>
       </c>
       <c r="AE2" t="n">
-        <v>1397808.812284904</v>
+        <v>1475766.509359222</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.650055907742176e-06</v>
+        <v>3.234086775510624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.816666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1264403.901077422</v>
+        <v>1334921.424957282</v>
       </c>
     </row>
     <row r="3">
@@ -7188,28 +7188,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>512.7944773788539</v>
+        <v>558.2902991909102</v>
       </c>
       <c r="AB3" t="n">
-        <v>701.6280268454468</v>
+        <v>763.877417382704</v>
       </c>
       <c r="AC3" t="n">
-        <v>634.6656327044371</v>
+        <v>690.9740287763869</v>
       </c>
       <c r="AD3" t="n">
-        <v>512794.4773788539</v>
+        <v>558290.2991909102</v>
       </c>
       <c r="AE3" t="n">
-        <v>701628.0268454468</v>
+        <v>763877.4173827041</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.425171691769197e-06</v>
+        <v>4.753303000154468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.678125000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>634665.6327044371</v>
+        <v>690974.028776387</v>
       </c>
     </row>
     <row r="4">
@@ -7294,28 +7294,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.3418126388717</v>
+        <v>446.7522935963565</v>
       </c>
       <c r="AB4" t="n">
-        <v>549.1335740036556</v>
+        <v>611.2661974187154</v>
       </c>
       <c r="AC4" t="n">
-        <v>496.7250364145576</v>
+        <v>552.9278094545687</v>
       </c>
       <c r="AD4" t="n">
-        <v>401341.8126388717</v>
+        <v>446752.2935963565</v>
       </c>
       <c r="AE4" t="n">
-        <v>549133.5740036556</v>
+        <v>611266.1974187153</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.70443105949488e-06</v>
+        <v>5.300647501550725e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.988541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>496725.0364145575</v>
+        <v>552927.8094545687</v>
       </c>
     </row>
     <row r="5">
@@ -7400,28 +7400,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>377.6694734275777</v>
+        <v>411.8553454275486</v>
       </c>
       <c r="AB5" t="n">
-        <v>516.7440351448636</v>
+        <v>563.5186533894548</v>
       </c>
       <c r="AC5" t="n">
-        <v>467.4267096854454</v>
+        <v>509.737224013362</v>
       </c>
       <c r="AD5" t="n">
-        <v>377669.4734275777</v>
+        <v>411855.3454275486</v>
       </c>
       <c r="AE5" t="n">
-        <v>516744.0351448635</v>
+        <v>563518.6533894548</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.770669640035604e-06</v>
+        <v>5.430474203997721e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.845833333333332</v>
       </c>
       <c r="AH5" t="n">
-        <v>467426.7096854454</v>
+        <v>509737.224013362</v>
       </c>
     </row>
   </sheetData>
@@ -7697,28 +7697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1296.812559217231</v>
+        <v>1366.602481958687</v>
       </c>
       <c r="AB2" t="n">
-        <v>1774.356154853355</v>
+        <v>1869.845806062307</v>
       </c>
       <c r="AC2" t="n">
-        <v>1605.014093758654</v>
+        <v>1691.390346676792</v>
       </c>
       <c r="AD2" t="n">
-        <v>1296812.559217231</v>
+        <v>1366602.481958687</v>
       </c>
       <c r="AE2" t="n">
-        <v>1774356.154853355</v>
+        <v>1869845.806062307</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.455236263754002e-06</v>
+        <v>2.797987248248883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.90520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1605014.093758654</v>
+        <v>1691390.346676792</v>
       </c>
     </row>
     <row r="3">
@@ -7803,28 +7803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>592.6260775657896</v>
+        <v>639.1242457752363</v>
       </c>
       <c r="AB3" t="n">
-        <v>810.8571441428478</v>
+        <v>874.4779892414168</v>
       </c>
       <c r="AC3" t="n">
-        <v>733.4700763510033</v>
+        <v>791.0190372857817</v>
       </c>
       <c r="AD3" t="n">
-        <v>592626.0775657896</v>
+        <v>639124.2457752363</v>
       </c>
       <c r="AE3" t="n">
-        <v>810857.1441428479</v>
+        <v>874477.9892414168</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.266950963636888e-06</v>
+        <v>4.358673602799768e-06</v>
       </c>
       <c r="AG3" t="n">
         <v>7</v>
       </c>
       <c r="AH3" t="n">
-        <v>733470.0763510033</v>
+        <v>791019.0372857817</v>
       </c>
     </row>
     <row r="4">
@@ -7909,28 +7909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>473.4840770712696</v>
+        <v>508.3364575232628</v>
       </c>
       <c r="AB4" t="n">
-        <v>647.841802892146</v>
+        <v>695.5283674050717</v>
       </c>
       <c r="AC4" t="n">
-        <v>586.0126904757998</v>
+        <v>629.1481162001255</v>
       </c>
       <c r="AD4" t="n">
-        <v>473484.0770712696</v>
+        <v>508336.4575232628</v>
       </c>
       <c r="AE4" t="n">
-        <v>647841.802892146</v>
+        <v>695528.3674050716</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.566164115020144e-06</v>
+        <v>4.933971650911242e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.184374999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>586012.6904757998</v>
+        <v>629148.1162001255</v>
       </c>
     </row>
     <row r="5">
@@ -8015,28 +8015,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>406.7487948902359</v>
+        <v>441.6864266882496</v>
       </c>
       <c r="AB5" t="n">
-        <v>556.5316456591936</v>
+        <v>604.3348548247686</v>
       </c>
       <c r="AC5" t="n">
-        <v>503.4170464945499</v>
+        <v>546.6579844695879</v>
       </c>
       <c r="AD5" t="n">
-        <v>406748.7948902359</v>
+        <v>441686.4266882496</v>
       </c>
       <c r="AE5" t="n">
-        <v>556531.6456591936</v>
+        <v>604334.8548247686</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.704039828870372e-06</v>
+        <v>5.199065710758943e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.868750000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>503417.0464945499</v>
+        <v>546657.9844695879</v>
       </c>
     </row>
     <row r="6">
@@ -8121,28 +8121,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>397.326322047607</v>
+        <v>432.2639538456206</v>
       </c>
       <c r="AB6" t="n">
-        <v>543.6394026257448</v>
+        <v>591.4426117913199</v>
       </c>
       <c r="AC6" t="n">
-        <v>491.7552210418367</v>
+        <v>534.9961590168747</v>
       </c>
       <c r="AD6" t="n">
-        <v>397326.322047607</v>
+        <v>432263.9538456206</v>
       </c>
       <c r="AE6" t="n">
-        <v>543639.4026257448</v>
+        <v>591442.6117913199</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.731310273930251e-06</v>
+        <v>5.2514986795023e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.810416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>491755.2210418367</v>
+        <v>534996.1590168747</v>
       </c>
     </row>
   </sheetData>
@@ -8418,28 +8418,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2129.711645014536</v>
+        <v>2214.361633090125</v>
       </c>
       <c r="AB2" t="n">
-        <v>2913.965428955566</v>
+        <v>3029.787277134668</v>
       </c>
       <c r="AC2" t="n">
-        <v>2635.860658192213</v>
+        <v>2740.628631737971</v>
       </c>
       <c r="AD2" t="n">
-        <v>2129711.645014536</v>
+        <v>2214361.633090125</v>
       </c>
       <c r="AE2" t="n">
-        <v>2913965.428955567</v>
+        <v>3029787.277134668</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.114202645118568e-06</v>
+        <v>2.075675019569386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.74895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2635860.658192213</v>
+        <v>2740628.631737971</v>
       </c>
     </row>
     <row r="3">
@@ -8524,28 +8524,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>770.539071783961</v>
+        <v>818.9104935414393</v>
       </c>
       <c r="AB3" t="n">
-        <v>1054.285551799502</v>
+        <v>1120.469465044602</v>
       </c>
       <c r="AC3" t="n">
-        <v>953.6660184348226</v>
+        <v>1013.533431889515</v>
       </c>
       <c r="AD3" t="n">
-        <v>770539.071783961</v>
+        <v>818910.4935414393</v>
       </c>
       <c r="AE3" t="n">
-        <v>1054285.551799502</v>
+        <v>1120469.465044602</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.005035378935155e-06</v>
+        <v>3.735228836192236e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.639583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>953666.0184348226</v>
+        <v>1013533.431889515</v>
       </c>
     </row>
     <row r="4">
@@ -8630,28 +8630,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>596.0406080939863</v>
+        <v>644.326688996893</v>
       </c>
       <c r="AB4" t="n">
-        <v>815.529055449982</v>
+        <v>881.5962015728837</v>
       </c>
       <c r="AC4" t="n">
-        <v>737.6961070000532</v>
+        <v>797.4578974228073</v>
       </c>
       <c r="AD4" t="n">
-        <v>596040.6080939863</v>
+        <v>644326.688996893</v>
       </c>
       <c r="AE4" t="n">
-        <v>815529.0554499821</v>
+        <v>881596.2015728838</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.320458986402402e-06</v>
+        <v>4.322839093150971e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.601041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>737696.1070000532</v>
+        <v>797457.8974228073</v>
       </c>
     </row>
     <row r="5">
@@ -8736,28 +8736,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>520.6626014686872</v>
+        <v>556.8559164407752</v>
       </c>
       <c r="AB5" t="n">
-        <v>712.3935413422934</v>
+        <v>761.9148316234688</v>
       </c>
       <c r="AC5" t="n">
-        <v>644.4037016071992</v>
+        <v>689.1987494475065</v>
       </c>
       <c r="AD5" t="n">
-        <v>520662.6014686872</v>
+        <v>556855.9164407753</v>
       </c>
       <c r="AE5" t="n">
-        <v>712393.5413422934</v>
+        <v>761914.8316234688</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.497654998988897e-06</v>
+        <v>4.652941824915667e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.132291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>644403.7016071992</v>
+        <v>689198.7494475065</v>
       </c>
     </row>
     <row r="6">
@@ -8842,28 +8842,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>471.8444659234802</v>
+        <v>520.0452059718151</v>
       </c>
       <c r="AB6" t="n">
-        <v>645.5984145852018</v>
+        <v>711.548793585906</v>
       </c>
       <c r="AC6" t="n">
-        <v>583.9834080002552</v>
+        <v>643.6395753910704</v>
       </c>
       <c r="AD6" t="n">
-        <v>471844.4659234802</v>
+        <v>520045.2059718151</v>
       </c>
       <c r="AE6" t="n">
-        <v>645598.4145852018</v>
+        <v>711548.7935859059</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.576180036931793e-06</v>
+        <v>4.79922801475994e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.945833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>583983.4080002551</v>
+        <v>643639.5753910703</v>
       </c>
     </row>
     <row r="7">
@@ -8948,28 +8948,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>432.1212326480866</v>
+        <v>468.3997989661952</v>
       </c>
       <c r="AB7" t="n">
-        <v>591.2473343524389</v>
+        <v>640.8852692862636</v>
       </c>
       <c r="AC7" t="n">
-        <v>534.8195185826869</v>
+        <v>579.7200786737067</v>
       </c>
       <c r="AD7" t="n">
-        <v>432121.2326480866</v>
+        <v>468399.7989661952</v>
       </c>
       <c r="AE7" t="n">
-        <v>591247.3343524389</v>
+        <v>640885.2692862636</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.663086960947243e-06</v>
+        <v>4.961129022621297e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.752083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>534819.5185826869</v>
+        <v>579720.0786737066</v>
       </c>
     </row>
     <row r="8">
@@ -9054,28 +9054,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>431.9235613587089</v>
+        <v>468.2021276768176</v>
       </c>
       <c r="AB8" t="n">
-        <v>590.9768717736706</v>
+        <v>640.6148067074953</v>
       </c>
       <c r="AC8" t="n">
-        <v>534.5748685728397</v>
+        <v>579.4754286638594</v>
       </c>
       <c r="AD8" t="n">
-        <v>431923.5613587089</v>
+        <v>468202.1276768176</v>
       </c>
       <c r="AE8" t="n">
-        <v>590976.8717736707</v>
+        <v>640614.8067074952</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.66514566980717e-06</v>
+        <v>4.964964241081635e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.747916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>534574.8685728397</v>
+        <v>579475.4286638594</v>
       </c>
     </row>
   </sheetData>
@@ -9351,28 +9351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>797.2166847985693</v>
+        <v>852.7337613895428</v>
       </c>
       <c r="AB2" t="n">
-        <v>1090.787038859312</v>
+        <v>1166.747952291642</v>
       </c>
       <c r="AC2" t="n">
-        <v>986.6838547998025</v>
+        <v>1055.395165265963</v>
       </c>
       <c r="AD2" t="n">
-        <v>797216.6847985693</v>
+        <v>852733.7613895428</v>
       </c>
       <c r="AE2" t="n">
-        <v>1090787.038859312</v>
+        <v>1166747.952291642</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.871013866540865e-06</v>
+        <v>3.750442346582804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.857291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>986683.8547998025</v>
+        <v>1055395.165265963</v>
       </c>
     </row>
     <row r="3">
@@ -9457,28 +9457,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>438.077356566306</v>
+        <v>471.3535556876126</v>
       </c>
       <c r="AB3" t="n">
-        <v>599.3967658629889</v>
+        <v>644.9267295430566</v>
       </c>
       <c r="AC3" t="n">
-        <v>542.1911797876689</v>
+        <v>583.3758276358163</v>
       </c>
       <c r="AD3" t="n">
-        <v>438077.356566306</v>
+        <v>471353.5556876126</v>
       </c>
       <c r="AE3" t="n">
-        <v>599396.7658629889</v>
+        <v>644926.7295430566</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.594856489851888e-06</v>
+        <v>5.201382970420213e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.386458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>542191.179787669</v>
+        <v>583375.8276358163</v>
       </c>
     </row>
     <row r="4">
@@ -9563,28 +9563,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>363.0875602532901</v>
+        <v>407.398812500583</v>
       </c>
       <c r="AB4" t="n">
-        <v>496.7924182311964</v>
+        <v>557.4210284304237</v>
       </c>
       <c r="AC4" t="n">
-        <v>449.3792470877485</v>
+        <v>504.2215478223503</v>
       </c>
       <c r="AD4" t="n">
-        <v>363087.5602532901</v>
+        <v>407398.812500583</v>
       </c>
       <c r="AE4" t="n">
-        <v>496792.4182311964</v>
+        <v>557421.0284304237</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.789578109837095e-06</v>
+        <v>5.591701942634936e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.940625</v>
       </c>
       <c r="AH4" t="n">
-        <v>449379.2470877485</v>
+        <v>504221.5478223503</v>
       </c>
     </row>
     <row r="5">
@@ -9669,28 +9669,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>365.5091993244519</v>
+        <v>409.8204515717447</v>
       </c>
       <c r="AB5" t="n">
-        <v>500.1058116435357</v>
+        <v>560.7344218427628</v>
       </c>
       <c r="AC5" t="n">
-        <v>452.3764148831909</v>
+        <v>507.2187156177927</v>
       </c>
       <c r="AD5" t="n">
-        <v>365509.1993244519</v>
+        <v>409820.4515717448</v>
       </c>
       <c r="AE5" t="n">
-        <v>500105.8116435357</v>
+        <v>560734.4218427629</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.787828160637882e-06</v>
+        <v>5.58819417409379e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.943750000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>452376.4148831909</v>
+        <v>507218.7156177927</v>
       </c>
     </row>
   </sheetData>
@@ -9966,28 +9966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.8390825486703</v>
+        <v>577.4200785761584</v>
       </c>
       <c r="AB2" t="n">
-        <v>731.7904281781314</v>
+        <v>790.0516254839044</v>
       </c>
       <c r="AC2" t="n">
-        <v>661.9493767871263</v>
+        <v>714.6502071921407</v>
       </c>
       <c r="AD2" t="n">
-        <v>534839.0825486702</v>
+        <v>577420.0785761584</v>
       </c>
       <c r="AE2" t="n">
-        <v>731790.4281781313</v>
+        <v>790051.6254839045</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.265823655692103e-06</v>
+        <v>4.740244787599451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.617708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>661949.3767871263</v>
+        <v>714650.2071921406</v>
       </c>
     </row>
     <row r="3">
@@ -10072,28 +10072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>349.7638632923162</v>
+        <v>381.6143589669118</v>
       </c>
       <c r="AB3" t="n">
-        <v>478.5623482491669</v>
+        <v>522.1416015758476</v>
       </c>
       <c r="AC3" t="n">
-        <v>432.88902939874</v>
+        <v>472.3091399517884</v>
       </c>
       <c r="AD3" t="n">
-        <v>349763.8632923162</v>
+        <v>381614.3589669118</v>
       </c>
       <c r="AE3" t="n">
-        <v>478562.3482491669</v>
+        <v>522141.6015758477</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.808872300444756e-06</v>
+        <v>5.876336513553039e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>432889.02939874</v>
+        <v>472309.1399517884</v>
       </c>
     </row>
     <row r="4">
@@ -10178,28 +10178,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>351.0544310556986</v>
+        <v>382.9049267302941</v>
       </c>
       <c r="AB4" t="n">
-        <v>480.328159998858</v>
+        <v>523.9074133255388</v>
       </c>
       <c r="AC4" t="n">
-        <v>434.4863145533728</v>
+        <v>473.9064251064214</v>
       </c>
       <c r="AD4" t="n">
-        <v>351054.4310556985</v>
+        <v>382904.9267302941</v>
       </c>
       <c r="AE4" t="n">
-        <v>480328.1599988581</v>
+        <v>523907.4133255387</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.813015179943937e-06</v>
+        <v>5.88500367655238e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.136458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>434486.3145533729</v>
+        <v>473906.4251064213</v>
       </c>
     </row>
   </sheetData>
@@ -18000,28 +18000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>380.959491959264</v>
+        <v>421.9356919162682</v>
       </c>
       <c r="AB2" t="n">
-        <v>521.2455836452904</v>
+        <v>577.3110281688218</v>
       </c>
       <c r="AC2" t="n">
-        <v>471.4986367149546</v>
+        <v>522.2132739015057</v>
       </c>
       <c r="AD2" t="n">
-        <v>380959.491959264</v>
+        <v>421935.6919162683</v>
       </c>
       <c r="AE2" t="n">
-        <v>521245.5836452904</v>
+        <v>577311.0281688218</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.608398600299019e-06</v>
+        <v>5.670282347346485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.845833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>471498.6367149546</v>
+        <v>522213.2739015057</v>
       </c>
     </row>
     <row r="3">
@@ -18106,28 +18106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>335.4758592903628</v>
+        <v>366.1867635530243</v>
       </c>
       <c r="AB3" t="n">
-        <v>459.0128708314452</v>
+        <v>501.0328849130927</v>
       </c>
       <c r="AC3" t="n">
-        <v>415.2053266679017</v>
+        <v>453.2150095810569</v>
       </c>
       <c r="AD3" t="n">
-        <v>335475.8592903629</v>
+        <v>366186.7635530243</v>
       </c>
       <c r="AE3" t="n">
-        <v>459012.8708314452</v>
+        <v>501032.8849130927</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.791651630249049e-06</v>
+        <v>6.068648003847103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.396874999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>415205.3266679017</v>
+        <v>453215.0095810569</v>
       </c>
     </row>
   </sheetData>
@@ -18403,28 +18403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.1509064399516</v>
+        <v>366.0298236035217</v>
       </c>
       <c r="AB2" t="n">
-        <v>448.9905471873999</v>
+        <v>500.8181527504814</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.1395195260244</v>
+        <v>453.0207711546667</v>
       </c>
       <c r="AD2" t="n">
-        <v>328150.9064399516</v>
+        <v>366029.8236035217</v>
       </c>
       <c r="AE2" t="n">
-        <v>448990.5471873999</v>
+        <v>500818.1527504814</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.570170589809327e-06</v>
+        <v>6.113220048715467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.457291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>406139.5195260244</v>
+        <v>453020.7711546667</v>
       </c>
     </row>
   </sheetData>
@@ -18700,28 +18700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1156.238141336133</v>
+        <v>1213.769171495881</v>
       </c>
       <c r="AB2" t="n">
-        <v>1582.016034602815</v>
+        <v>1660.732528157302</v>
       </c>
       <c r="AC2" t="n">
-        <v>1431.030644633771</v>
+        <v>1502.234546522711</v>
       </c>
       <c r="AD2" t="n">
-        <v>1156238.141336133</v>
+        <v>1213769.17149588</v>
       </c>
       <c r="AE2" t="n">
-        <v>1582016.034602815</v>
+        <v>1660732.528157302</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.550853057858069e-06</v>
+        <v>3.009551627710405e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.33541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1431030.644633771</v>
+        <v>1502234.546522711</v>
       </c>
     </row>
     <row r="3">
@@ -18806,28 +18806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>552.4579776804028</v>
+        <v>598.4656620304454</v>
       </c>
       <c r="AB3" t="n">
-        <v>755.8973777881624</v>
+        <v>818.8471212316744</v>
       </c>
       <c r="AC3" t="n">
-        <v>683.7555929606925</v>
+        <v>740.697501240475</v>
       </c>
       <c r="AD3" t="n">
-        <v>552457.9776804028</v>
+        <v>598465.6620304454</v>
       </c>
       <c r="AE3" t="n">
-        <v>755897.3777881624</v>
+        <v>818847.1212316743</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.343128322756491e-06</v>
+        <v>4.547023731200918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.840625</v>
       </c>
       <c r="AH3" t="n">
-        <v>683755.5929606925</v>
+        <v>740697.5012404751</v>
       </c>
     </row>
     <row r="4">
@@ -18912,28 +18912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>443.4225001883219</v>
+        <v>477.907017745762</v>
       </c>
       <c r="AB4" t="n">
-        <v>606.710227177725</v>
+        <v>653.8934654493578</v>
       </c>
       <c r="AC4" t="n">
-        <v>548.8066546190341</v>
+        <v>591.486790852113</v>
       </c>
       <c r="AD4" t="n">
-        <v>443422.5001883219</v>
+        <v>477907.017745762</v>
       </c>
       <c r="AE4" t="n">
-        <v>606710.2271777249</v>
+        <v>653893.4654493578</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.63455760061969e-06</v>
+        <v>5.112565033203449e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.084374999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>548806.6546190341</v>
+        <v>591486.790852113</v>
       </c>
     </row>
     <row r="5">
@@ -19018,28 +19018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>388.5226249876478</v>
+        <v>423.0923938911084</v>
       </c>
       <c r="AB5" t="n">
-        <v>531.5937959166057</v>
+        <v>578.8936788408878</v>
       </c>
       <c r="AC5" t="n">
-        <v>480.8592301309026</v>
+        <v>523.6448786146938</v>
       </c>
       <c r="AD5" t="n">
-        <v>388522.6249876478</v>
+        <v>423092.3938911084</v>
       </c>
       <c r="AE5" t="n">
-        <v>531593.7959166057</v>
+        <v>578893.6788408877</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.745805418938113e-06</v>
+        <v>5.328450123672207e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.837499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>480859.2301309026</v>
+        <v>523644.8786146938</v>
       </c>
     </row>
     <row r="6">
@@ -19124,28 +19124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>392.7580416194887</v>
+        <v>427.3278105229495</v>
       </c>
       <c r="AB6" t="n">
-        <v>537.3888798056851</v>
+        <v>584.688762729967</v>
       </c>
       <c r="AC6" t="n">
-        <v>486.1012393470595</v>
+        <v>528.8868878308507</v>
       </c>
       <c r="AD6" t="n">
-        <v>392758.0416194887</v>
+        <v>427327.8105229495</v>
       </c>
       <c r="AE6" t="n">
-        <v>537388.879805685</v>
+        <v>584688.762729967</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.734265188822094e-06</v>
+        <v>5.306055404743913e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.861458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>486101.2393470595</v>
+        <v>528886.8878308507</v>
       </c>
     </row>
   </sheetData>
@@ -19421,28 +19421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1870.585490888149</v>
+        <v>1954.407964962449</v>
       </c>
       <c r="AB2" t="n">
-        <v>2559.417593040743</v>
+        <v>2674.107200055765</v>
       </c>
       <c r="AC2" t="n">
-        <v>2315.150370126086</v>
+        <v>2418.89416201547</v>
       </c>
       <c r="AD2" t="n">
-        <v>1870585.490888149</v>
+        <v>1954407.964962449</v>
       </c>
       <c r="AE2" t="n">
-        <v>2559417.593040743</v>
+        <v>2674107.200055765</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.194938335995896e-06</v>
+        <v>2.242173008088799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.925</v>
       </c>
       <c r="AH2" t="n">
-        <v>2315150.370126086</v>
+        <v>2418894.16201547</v>
       </c>
     </row>
     <row r="3">
@@ -19527,28 +19527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>730.7746487442333</v>
+        <v>778.551379360139</v>
       </c>
       <c r="AB3" t="n">
-        <v>999.8781139140134</v>
+        <v>1065.248344503292</v>
       </c>
       <c r="AC3" t="n">
-        <v>904.4511500598059</v>
+        <v>963.5825375893386</v>
       </c>
       <c r="AD3" t="n">
-        <v>730774.6487442333</v>
+        <v>778551.379360139</v>
       </c>
       <c r="AE3" t="n">
-        <v>999878.1139140134</v>
+        <v>1065248.344503292</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.060412348554283e-06</v>
+        <v>3.86614171986623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.495833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>904451.1500598058</v>
+        <v>963582.5375893386</v>
       </c>
     </row>
     <row r="4">
@@ -19633,28 +19633,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>565.6733675095204</v>
+        <v>601.5486082758732</v>
       </c>
       <c r="AB4" t="n">
-        <v>773.9792571742128</v>
+        <v>823.0653442946577</v>
       </c>
       <c r="AC4" t="n">
-        <v>700.1117631562151</v>
+        <v>744.5131430146408</v>
       </c>
       <c r="AD4" t="n">
-        <v>565673.3675095204</v>
+        <v>601548.6082758732</v>
       </c>
       <c r="AE4" t="n">
-        <v>773979.2571742127</v>
+        <v>823065.3442946577</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.376532032428616e-06</v>
+        <v>4.45930623819919e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.498958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>700111.7631562152</v>
+        <v>744513.1430146408</v>
       </c>
     </row>
     <row r="5">
@@ -19739,28 +19739,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>492.2099700297218</v>
+        <v>528.0852107960746</v>
       </c>
       <c r="AB5" t="n">
-        <v>673.4633957659923</v>
+        <v>722.5494828864372</v>
       </c>
       <c r="AC5" t="n">
-        <v>609.1889944858979</v>
+        <v>653.5903743443233</v>
       </c>
       <c r="AD5" t="n">
-        <v>492209.9700297219</v>
+        <v>528085.2107960746</v>
       </c>
       <c r="AE5" t="n">
-        <v>673463.3957659923</v>
+        <v>722549.4828864372</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.556388118985636e-06</v>
+        <v>4.796786801397069e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>609188.9944858978</v>
+        <v>653590.3743443233</v>
       </c>
     </row>
     <row r="6">
@@ -19845,28 +19845,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>441.2458546815889</v>
+        <v>477.2063467939623</v>
       </c>
       <c r="AB6" t="n">
-        <v>603.7320447685904</v>
+        <v>652.9347765416844</v>
       </c>
       <c r="AC6" t="n">
-        <v>546.112705759122</v>
+        <v>590.6195978682599</v>
       </c>
       <c r="AD6" t="n">
-        <v>441245.8546815889</v>
+        <v>477206.3467939624</v>
       </c>
       <c r="AE6" t="n">
-        <v>603732.0447685904</v>
+        <v>652934.7765416844</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.640162800687793e-06</v>
+        <v>4.95398096315041e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.849999999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>546112.705759122</v>
+        <v>590619.5978682599</v>
       </c>
     </row>
     <row r="7">
@@ -19951,28 +19951,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>422.3739237561811</v>
+        <v>458.3344158685545</v>
       </c>
       <c r="AB7" t="n">
-        <v>577.9106363056148</v>
+        <v>627.1133680787091</v>
       </c>
       <c r="AC7" t="n">
-        <v>522.7556562792785</v>
+        <v>567.2625483884165</v>
       </c>
       <c r="AD7" t="n">
-        <v>422373.9237561811</v>
+        <v>458334.4158685545</v>
       </c>
       <c r="AE7" t="n">
-        <v>577910.6363056148</v>
+        <v>627113.3680787091</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.683013921062878e-06</v>
+        <v>5.034386472436632e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.757291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>522755.6562792785</v>
+        <v>567262.5483884164</v>
       </c>
     </row>
     <row r="8">
@@ -20057,28 +20057,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>424.1880101930915</v>
+        <v>460.1485023054649</v>
       </c>
       <c r="AB8" t="n">
-        <v>580.3927494004409</v>
+        <v>629.5954811735351</v>
       </c>
       <c r="AC8" t="n">
-        <v>525.0008799840019</v>
+        <v>569.5077720931398</v>
       </c>
       <c r="AD8" t="n">
-        <v>424188.0101930915</v>
+        <v>460148.5023054649</v>
       </c>
       <c r="AE8" t="n">
-        <v>580392.749400441</v>
+        <v>629595.4811735351</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.683013921062878e-06</v>
+        <v>5.034386472436632e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.756250000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>525000.879984002</v>
+        <v>569507.7720931398</v>
       </c>
     </row>
   </sheetData>
@@ -20354,28 +20354,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.8588233254621</v>
+        <v>386.5744472870574</v>
       </c>
       <c r="AB2" t="n">
-        <v>466.3780797038806</v>
+        <v>528.9282132391238</v>
       </c>
       <c r="AC2" t="n">
-        <v>421.8676103426874</v>
+        <v>478.4480469229908</v>
       </c>
       <c r="AD2" t="n">
-        <v>340858.8233254621</v>
+        <v>386574.4472870574</v>
       </c>
       <c r="AE2" t="n">
-        <v>466378.0797038806</v>
+        <v>528928.2132391238</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.304567563675131e-06</v>
+        <v>5.763548584198404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.611458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>421867.6103426875</v>
+        <v>478448.0469229908</v>
       </c>
     </row>
   </sheetData>
@@ -20651,28 +20651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>623.6318176274041</v>
+        <v>666.8023541787553</v>
       </c>
       <c r="AB2" t="n">
-        <v>853.2805655718604</v>
+        <v>912.3483982310753</v>
       </c>
       <c r="AC2" t="n">
-        <v>771.8446659804767</v>
+        <v>825.2751475929199</v>
       </c>
       <c r="AD2" t="n">
-        <v>623631.8176274041</v>
+        <v>666802.3541787553</v>
       </c>
       <c r="AE2" t="n">
-        <v>853280.5655718604</v>
+        <v>912348.3982310753</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.12159028263251e-06</v>
+        <v>4.368955773931494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.017708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>771844.6659804768</v>
+        <v>825275.1475929199</v>
       </c>
     </row>
     <row r="3">
@@ -20757,28 +20757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.474700133659</v>
+        <v>395.8312897106672</v>
       </c>
       <c r="AB3" t="n">
-        <v>497.3221200949234</v>
+        <v>541.5938334261722</v>
       </c>
       <c r="AC3" t="n">
-        <v>449.8583949490425</v>
+        <v>489.9048780956968</v>
       </c>
       <c r="AD3" t="n">
-        <v>363474.7001336591</v>
+        <v>395831.2897106672</v>
       </c>
       <c r="AE3" t="n">
-        <v>497322.1200949234</v>
+        <v>541593.8334261721</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.78687344238042e-06</v>
+        <v>5.738962379765615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.103125000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>449858.3949490425</v>
+        <v>489904.8780956968</v>
       </c>
     </row>
     <row r="4">
@@ -20863,28 +20863,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>358.5428474461089</v>
+        <v>390.8994370231171</v>
       </c>
       <c r="AB4" t="n">
-        <v>490.5741416698327</v>
+        <v>534.8458550010815</v>
       </c>
       <c r="AC4" t="n">
-        <v>443.7544341139953</v>
+        <v>483.8009172606496</v>
       </c>
       <c r="AD4" t="n">
-        <v>358542.8474461089</v>
+        <v>390899.4370231171</v>
       </c>
       <c r="AE4" t="n">
-        <v>490574.1416698327</v>
+        <v>534845.8550010815</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.809408807143604e-06</v>
+        <v>5.785369083645122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.054166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>443754.4341139953</v>
+        <v>483800.9172606496</v>
       </c>
     </row>
   </sheetData>
@@ -21160,28 +21160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>909.1267317671842</v>
+        <v>965.2626762104597</v>
       </c>
       <c r="AB2" t="n">
-        <v>1243.907302244598</v>
+        <v>1320.714977974971</v>
       </c>
       <c r="AC2" t="n">
-        <v>1125.190535153237</v>
+        <v>1194.667794112153</v>
       </c>
       <c r="AD2" t="n">
-        <v>909126.7317671842</v>
+        <v>965262.6762104598</v>
       </c>
       <c r="AE2" t="n">
-        <v>1243907.302244598</v>
+        <v>1320714.977974971</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.757434801002706e-06</v>
+        <v>3.481801905240775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.31875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1125190.535153237</v>
+        <v>1194667.794112153</v>
       </c>
     </row>
     <row r="3">
@@ -21266,28 +21266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>475.3380670719423</v>
+        <v>509.2073299128346</v>
       </c>
       <c r="AB3" t="n">
-        <v>650.3785138033326</v>
+        <v>696.7199334286621</v>
       </c>
       <c r="AC3" t="n">
-        <v>588.307301257919</v>
+        <v>630.2259608347979</v>
       </c>
       <c r="AD3" t="n">
-        <v>475338.0670719423</v>
+        <v>509207.3299128346</v>
       </c>
       <c r="AE3" t="n">
-        <v>650378.5138033326</v>
+        <v>696719.9334286621</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.507386849739771e-06</v>
+        <v>4.967594988797629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.532291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>588307.3012579189</v>
+        <v>630225.9608347979</v>
       </c>
     </row>
     <row r="4">
@@ -21372,28 +21372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>374.8007527769209</v>
+        <v>408.5846747632417</v>
       </c>
       <c r="AB4" t="n">
-        <v>512.818924991612</v>
+        <v>559.0435774947439</v>
       </c>
       <c r="AC4" t="n">
-        <v>463.8762065362934</v>
+        <v>505.6892430812337</v>
       </c>
       <c r="AD4" t="n">
-        <v>374800.7527769209</v>
+        <v>408584.6747632417</v>
       </c>
       <c r="AE4" t="n">
-        <v>512818.924991612</v>
+        <v>559043.5774947439</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.767118670392523e-06</v>
+        <v>5.482171545199289e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.91875</v>
       </c>
       <c r="AH4" t="n">
-        <v>463876.2065362934</v>
+        <v>505689.2430812337</v>
       </c>
     </row>
     <row r="5">
@@ -21478,28 +21478,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.3798864994125</v>
+        <v>406.1638084857332</v>
       </c>
       <c r="AB5" t="n">
-        <v>509.5065889496425</v>
+        <v>555.7312414527744</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.8799951972767</v>
+        <v>502.6930317422169</v>
       </c>
       <c r="AD5" t="n">
-        <v>372379.8864994125</v>
+        <v>406163.8084857332</v>
       </c>
       <c r="AE5" t="n">
-        <v>509506.5889496425</v>
+        <v>555731.2414527744</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.776709252147861e-06</v>
+        <v>5.501172253395719e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.897916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>460879.9951972767</v>
+        <v>502693.0317422169</v>
       </c>
     </row>
   </sheetData>
